--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,6 +141,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>wellbeing-vision</t>
+  </si>
+  <si>
+    <t>Well-Being Vision</t>
+  </si>
+  <si>
+    <t>A peron's vision for well-being</t>
+  </si>
+  <si>
     <t>wellbeing-priority</t>
   </si>
   <si>
@@ -148,6 +157,12 @@
   </si>
   <si>
     <t>Priority for one area of well-being</t>
+  </si>
+  <si>
+    <t>wellbeing-focus-area</t>
+  </si>
+  <si>
+    <t>Well-Being Focus Area</t>
   </si>
   <si>
     <t>wellbeing-statement</t>
@@ -514,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +588,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +596,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -595,13 +610,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -609,13 +624,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -623,13 +638,41 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="D8" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="D8" t="s" s="2">
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>62</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,6 +141,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters Most</t>
+  </si>
+  <si>
+    <t>What matters most for a person's well-being</t>
+  </si>
+  <si>
     <t>wellbeing-vision</t>
   </si>
   <si>
@@ -157,12 +166,6 @@
   </si>
   <si>
     <t>Priority for one area of well-being</t>
-  </si>
-  <si>
-    <t>wellbeing-focus-area</t>
-  </si>
-  <si>
-    <t>Well-Being Focus Area</t>
   </si>
   <si>
     <t>wellbeing-statement</t>
@@ -588,7 +591,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -596,13 +599,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -610,13 +613,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -624,13 +627,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -638,13 +641,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +655,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -666,13 +669,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,7 @@
     <t>what-matters</t>
   </si>
   <si>
-    <t>What Matters Most</t>
+    <t>What Matters</t>
   </si>
   <si>
     <t>What matters most for a person's well-being</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Code system to identify resource codes and category domains for "What Matters".</t>
+    <t>Code system to identify resource codes and category codes for Well-Being.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,6 +105,9 @@
     <t>Hierarchy</t>
   </si>
   <si>
+    <t>is-a</t>
+  </si>
+  <si>
     <t>Compositional</t>
   </si>
   <si>
@@ -123,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -147,43 +150,52 @@
     <t>What Matters</t>
   </si>
   <si>
-    <t>What matters most for a person's well-being</t>
-  </si>
-  <si>
-    <t>wellbeing-vision</t>
-  </si>
-  <si>
-    <t>Well-Being Vision</t>
-  </si>
-  <si>
-    <t>A peron's vision for well-being</t>
-  </si>
-  <si>
-    <t>wellbeing-priority</t>
-  </si>
-  <si>
-    <t>Well-Being Priority</t>
-  </si>
-  <si>
-    <t>Priority for one area of well-being</t>
-  </si>
-  <si>
-    <t>wellbeing-statement</t>
-  </si>
-  <si>
-    <t>Well-Being Statement</t>
-  </si>
-  <si>
-    <t>Statement about one area of well-being</t>
-  </si>
-  <si>
-    <t>wellbeing-assessment</t>
-  </si>
-  <si>
-    <t>Well-Being Assessment</t>
-  </si>
-  <si>
-    <t>Assessment rating about one area of well-being</t>
+    <t>Know and align care with each person's specific health outcome goals and care preferences including, but not limited to, end-of-life care, and across settings of care.</t>
+  </si>
+  <si>
+    <t>mentation</t>
+  </si>
+  <si>
+    <t>Mentation</t>
+  </si>
+  <si>
+    <t>Prevent, identify, treat, and manage dementia, depression, and delirium and other mental health conditions across settings of care.</t>
+  </si>
+  <si>
+    <t>mobility</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Ensure that person can move safely every day in order to maintain function and do What Matters.</t>
+  </si>
+  <si>
+    <t>medication</t>
+  </si>
+  <si>
+    <t>Medicaion</t>
+  </si>
+  <si>
+    <t>If medication is necessary, use Age-Friendly medication that does not interfere with What Matters to the person, Mobility, or Mentation across settings of care.</t>
+  </si>
+  <si>
+    <t>person-centered</t>
+  </si>
+  <si>
+    <t>Person-Centered</t>
+  </si>
+  <si>
+    <t>General category for person-centered goals and observations</t>
+  </si>
+  <si>
+    <t>assessment-type</t>
+  </si>
+  <si>
+    <t>Assessment Type</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>now-rating</t>
@@ -489,40 +501,42 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,142 +554,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s" s="2">
         <v>59</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,9 +105,6 @@
     <t>Hierarchy</t>
   </si>
   <si>
-    <t>is-a</t>
-  </si>
-  <si>
     <t>Compositional</t>
   </si>
   <si>
@@ -126,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>10</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -142,60 +139,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>what-matters</t>
-  </si>
-  <si>
-    <t>What Matters</t>
-  </si>
-  <si>
-    <t>Know and align care with each person's specific health outcome goals and care preferences including, but not limited to, end-of-life care, and across settings of care.</t>
-  </si>
-  <si>
-    <t>mentation</t>
-  </si>
-  <si>
-    <t>Mentation</t>
-  </si>
-  <si>
-    <t>Prevent, identify, treat, and manage dementia, depression, and delirium and other mental health conditions across settings of care.</t>
-  </si>
-  <si>
-    <t>mobility</t>
-  </si>
-  <si>
-    <t>Mobility</t>
-  </si>
-  <si>
-    <t>Ensure that person can move safely every day in order to maintain function and do What Matters.</t>
-  </si>
-  <si>
-    <t>medication</t>
-  </si>
-  <si>
-    <t>Medicaion</t>
-  </si>
-  <si>
-    <t>If medication is necessary, use Age-Friendly medication that does not interfere with What Matters to the person, Mobility, or Mentation across settings of care.</t>
-  </si>
-  <si>
-    <t>person-centered</t>
-  </si>
-  <si>
-    <t>Person-Centered</t>
-  </si>
-  <si>
-    <t>General category for person-centered goals and observations</t>
-  </si>
-  <si>
-    <t>assessment-type</t>
-  </si>
-  <si>
-    <t>Assessment Type</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>now-rating</t>
@@ -501,42 +444,40 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,154 +495,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-wellbeing-concepts.xlsx
+++ b/CodeSystem-wellbeing-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
